--- a/data/pca/factorExposure/factorExposure_2017-08-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02411688538602252</v>
+        <v>-0.006445392636247493</v>
       </c>
       <c r="C2">
-        <v>-0.006041378124842541</v>
+        <v>0.04166201478045305</v>
       </c>
       <c r="D2">
-        <v>0.01800723885156336</v>
+        <v>0.02973767984988101</v>
       </c>
       <c r="E2">
-        <v>0.008841934327571891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03251867348117381</v>
+      </c>
+      <c r="F2">
+        <v>0.02088373181183587</v>
+      </c>
+      <c r="G2">
+        <v>0.04524059417437293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01565858356734284</v>
+        <v>-0.05495641510673484</v>
       </c>
       <c r="C3">
-        <v>-0.05853980064989753</v>
+        <v>0.06852013449603114</v>
       </c>
       <c r="D3">
-        <v>0.007538633182047253</v>
+        <v>0.01471586974203727</v>
       </c>
       <c r="E3">
-        <v>0.007696686959082846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1001781225025523</v>
+      </c>
+      <c r="F3">
+        <v>0.0530709805631825</v>
+      </c>
+      <c r="G3">
+        <v>0.09899394278720709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02292572261390685</v>
+        <v>-0.05523848260056582</v>
       </c>
       <c r="C4">
-        <v>-0.02210527754681414</v>
+        <v>0.06326800464676109</v>
       </c>
       <c r="D4">
-        <v>0.06115078707187218</v>
+        <v>0.02330189624439137</v>
       </c>
       <c r="E4">
-        <v>-0.01664639268776871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01793147094250023</v>
+      </c>
+      <c r="F4">
+        <v>0.005962448963999421</v>
+      </c>
+      <c r="G4">
+        <v>0.05846957300528485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01531240890426528</v>
+        <v>-0.03694336825211444</v>
       </c>
       <c r="C6">
-        <v>-0.01953347332159602</v>
+        <v>0.04914857364843091</v>
       </c>
       <c r="D6">
-        <v>0.08024302604549806</v>
+        <v>0.01544130483201313</v>
       </c>
       <c r="E6">
-        <v>-0.007698497534872971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01646577821003386</v>
+      </c>
+      <c r="F6">
+        <v>0.01279231433577759</v>
+      </c>
+      <c r="G6">
+        <v>0.03447849473694017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01046386721581533</v>
+        <v>-0.01652407087248412</v>
       </c>
       <c r="C7">
-        <v>-0.005094975238449112</v>
+        <v>0.03646770123175196</v>
       </c>
       <c r="D7">
-        <v>0.02935782631454899</v>
+        <v>0.01338478948626534</v>
       </c>
       <c r="E7">
-        <v>-0.0756567070123421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008205113315033449</v>
+      </c>
+      <c r="F7">
+        <v>0.00350683598997077</v>
+      </c>
+      <c r="G7">
+        <v>0.09996589932418379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002907825948087008</v>
+        <v>0.001822668783955073</v>
       </c>
       <c r="C8">
-        <v>0.0007839162794082705</v>
+        <v>0.01890307943144946</v>
       </c>
       <c r="D8">
-        <v>0.006526646076148051</v>
+        <v>0.003854382014922353</v>
       </c>
       <c r="E8">
-        <v>-0.007001037288037673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02310781234877021</v>
+      </c>
+      <c r="F8">
+        <v>0.02247822986081296</v>
+      </c>
+      <c r="G8">
+        <v>0.03089145152857203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01580431571287962</v>
+        <v>-0.0321260898390715</v>
       </c>
       <c r="C9">
-        <v>-0.02239139744978735</v>
+        <v>0.04386080337927251</v>
       </c>
       <c r="D9">
-        <v>0.04713021510700627</v>
+        <v>0.01600397520008784</v>
       </c>
       <c r="E9">
-        <v>-0.006966495415734636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01276008708601423</v>
+      </c>
+      <c r="F9">
+        <v>0.01139706704977983</v>
+      </c>
+      <c r="G9">
+        <v>0.05520731315517017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01691156831476224</v>
+        <v>-0.09323431170971354</v>
       </c>
       <c r="C10">
-        <v>-0.1585512842942636</v>
+        <v>-0.1834024552407187</v>
       </c>
       <c r="D10">
-        <v>-0.1205765283559395</v>
+        <v>-0.01766391451873241</v>
       </c>
       <c r="E10">
-        <v>-0.008845982312116024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009504241620092908</v>
+      </c>
+      <c r="F10">
+        <v>-0.02028723485732646</v>
+      </c>
+      <c r="G10">
+        <v>0.04898887535364832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006307820147359116</v>
+        <v>-0.03126370214501621</v>
       </c>
       <c r="C11">
-        <v>-0.008930857197000401</v>
+        <v>0.05333802811232531</v>
       </c>
       <c r="D11">
-        <v>0.04194299728814924</v>
+        <v>0.002378538311728698</v>
       </c>
       <c r="E11">
-        <v>0.005097380443856755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.006833629341256848</v>
+      </c>
+      <c r="F11">
+        <v>0.02206362186630165</v>
+      </c>
+      <c r="G11">
+        <v>0.03776989021048097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006053796860043897</v>
+        <v>-0.03124095592144206</v>
       </c>
       <c r="C12">
-        <v>-0.01614224174428868</v>
+        <v>0.04592518473075501</v>
       </c>
       <c r="D12">
-        <v>0.04418069616553877</v>
+        <v>0.006291367194299422</v>
       </c>
       <c r="E12">
-        <v>-0.003107633947922221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001544944992541409</v>
+      </c>
+      <c r="F12">
+        <v>0.006454205447918017</v>
+      </c>
+      <c r="G12">
+        <v>0.03792886378330155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02201961340397356</v>
+        <v>-0.01381235020982315</v>
       </c>
       <c r="C13">
-        <v>-0.01591054766056552</v>
+        <v>0.03103464018258383</v>
       </c>
       <c r="D13">
-        <v>0.01101229640521361</v>
+        <v>0.02496186963088275</v>
       </c>
       <c r="E13">
-        <v>0.009638289298027153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02283449747952688</v>
+      </c>
+      <c r="F13">
+        <v>0.01139994394378347</v>
+      </c>
+      <c r="G13">
+        <v>0.05258671525874208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007473130254245685</v>
+        <v>-0.008112067284540104</v>
       </c>
       <c r="C14">
-        <v>-0.01372810876935112</v>
+        <v>0.02547509442948198</v>
       </c>
       <c r="D14">
-        <v>0.01371891567076708</v>
+        <v>0.008597070323378071</v>
       </c>
       <c r="E14">
-        <v>-0.01313856198229941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005304650695230157</v>
+      </c>
+      <c r="F14">
+        <v>-0.004322064210875709</v>
+      </c>
+      <c r="G14">
+        <v>0.05552817835692542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001443634663678626</v>
+        <v>-0.03151985463979531</v>
       </c>
       <c r="C16">
-        <v>-0.01664808734521135</v>
+        <v>0.04432408254956237</v>
       </c>
       <c r="D16">
-        <v>0.04545997189062494</v>
+        <v>0.001749415744518869</v>
       </c>
       <c r="E16">
-        <v>-0.003253923001346155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005355437924518334</v>
+      </c>
+      <c r="F16">
+        <v>0.008922304640838079</v>
+      </c>
+      <c r="G16">
+        <v>0.03875528126657726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01368934874684821</v>
+        <v>-0.02284016376868517</v>
       </c>
       <c r="C19">
-        <v>-0.02551063254839769</v>
+        <v>0.04831262109282551</v>
       </c>
       <c r="D19">
-        <v>0.02051431878750613</v>
+        <v>0.01641814961883908</v>
       </c>
       <c r="E19">
-        <v>-0.004158151670019736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05415180609019107</v>
+      </c>
+      <c r="F19">
+        <v>0.02407850532933646</v>
+      </c>
+      <c r="G19">
+        <v>0.06471688601520474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01070799966364771</v>
+        <v>-0.01183331932857119</v>
       </c>
       <c r="C20">
-        <v>-0.009710278070922677</v>
+        <v>0.03263997206830808</v>
       </c>
       <c r="D20">
-        <v>0.009988896842969103</v>
+        <v>0.01315231717934904</v>
       </c>
       <c r="E20">
-        <v>0.0004812162617484034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02391812536158857</v>
+      </c>
+      <c r="F20">
+        <v>-0.002446924295084782</v>
+      </c>
+      <c r="G20">
+        <v>0.05293530966049433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01503272654008642</v>
+        <v>-0.01391144510562025</v>
       </c>
       <c r="C21">
-        <v>-0.03187892971125932</v>
+        <v>0.03405185078751242</v>
       </c>
       <c r="D21">
-        <v>0.01757198998406884</v>
+        <v>0.01652417032587237</v>
       </c>
       <c r="E21">
-        <v>-0.01718887701317715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03164938871383367</v>
+      </c>
+      <c r="F21">
+        <v>0.002853180570109173</v>
+      </c>
+      <c r="G21">
+        <v>0.07563165469171441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004674384774652742</v>
+        <v>-0.02462926649843401</v>
       </c>
       <c r="C24">
-        <v>-0.004760754159759501</v>
+        <v>0.04789578621588975</v>
       </c>
       <c r="D24">
-        <v>0.0412609262833313</v>
+        <v>0.007254392334670698</v>
       </c>
       <c r="E24">
-        <v>-0.0009605224238787095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002972631128264777</v>
+      </c>
+      <c r="F24">
+        <v>0.02030069989238548</v>
+      </c>
+      <c r="G24">
+        <v>0.04083327282164784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01222555039899891</v>
+        <v>-0.03936706860436591</v>
       </c>
       <c r="C25">
-        <v>-0.02479081085273044</v>
+        <v>0.05490166020932638</v>
       </c>
       <c r="D25">
-        <v>0.04167297444253276</v>
+        <v>0.01130522927602939</v>
       </c>
       <c r="E25">
-        <v>0.0006055439955954768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004648284948060527</v>
+      </c>
+      <c r="F25">
+        <v>0.01318378632757541</v>
+      </c>
+      <c r="G25">
+        <v>0.04580617664343443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02294203507708748</v>
+        <v>-0.01224493119563206</v>
       </c>
       <c r="C26">
-        <v>-0.01121756582684619</v>
+        <v>0.007543337351223939</v>
       </c>
       <c r="D26">
-        <v>-0.006244774448129536</v>
+        <v>0.02333631158007438</v>
       </c>
       <c r="E26">
-        <v>-0.007714026556350769</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003362499476277457</v>
+      </c>
+      <c r="F26">
+        <v>-0.004801407414791843</v>
+      </c>
+      <c r="G26">
+        <v>0.04170997099452688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03812870118900262</v>
+        <v>-0.1207094841692461</v>
       </c>
       <c r="C28">
-        <v>-0.2310248679285697</v>
+        <v>-0.2305325494743857</v>
       </c>
       <c r="D28">
-        <v>-0.1762171460778408</v>
+        <v>-0.008792187068928037</v>
       </c>
       <c r="E28">
-        <v>-0.01453468591324442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00112047581536136</v>
+      </c>
+      <c r="F28">
+        <v>-0.01834427256970579</v>
+      </c>
+      <c r="G28">
+        <v>0.06326460067530443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007999683528056823</v>
+        <v>-0.01065370725535804</v>
       </c>
       <c r="C29">
-        <v>-0.0198282645758012</v>
+        <v>0.01901490746606543</v>
       </c>
       <c r="D29">
-        <v>0.01004129157461426</v>
+        <v>0.007402262376505096</v>
       </c>
       <c r="E29">
-        <v>-0.008197918100576081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.00777639990733545</v>
+      </c>
+      <c r="F29">
+        <v>-0.01320304679462185</v>
+      </c>
+      <c r="G29">
+        <v>0.04564521933725163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02353680121774283</v>
+        <v>-0.04462669974693841</v>
       </c>
       <c r="C30">
-        <v>-0.007201809084689466</v>
+        <v>0.06267424588666611</v>
       </c>
       <c r="D30">
-        <v>0.06463461611298532</v>
+        <v>0.02764185837041687</v>
       </c>
       <c r="E30">
-        <v>0.05462822023950963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04366494821545526</v>
+      </c>
+      <c r="F30">
+        <v>0.05442259641124371</v>
+      </c>
+      <c r="G30">
+        <v>0.02926418683630656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.008634336520956444</v>
+        <v>-0.04973621694829285</v>
       </c>
       <c r="C31">
-        <v>-0.04217094429150996</v>
+        <v>0.03351721879484759</v>
       </c>
       <c r="D31">
-        <v>0.04391973162174641</v>
+        <v>0.003448212171719151</v>
       </c>
       <c r="E31">
-        <v>-0.01125926257590537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00630519599127432</v>
+      </c>
+      <c r="F31">
+        <v>-0.037686533178538</v>
+      </c>
+      <c r="G31">
+        <v>0.04604399428669669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006217580059623851</v>
+        <v>0.00324019191748955</v>
       </c>
       <c r="C32">
-        <v>-0.02332954748945148</v>
+        <v>0.02816126876134046</v>
       </c>
       <c r="D32">
-        <v>-0.004007816097629425</v>
+        <v>-0.004110436063008177</v>
       </c>
       <c r="E32">
-        <v>-0.02896367302081969</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01454313420757317</v>
+      </c>
+      <c r="F32">
+        <v>0.0479360565538442</v>
+      </c>
+      <c r="G32">
+        <v>0.06541998669640953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01329053141736635</v>
+        <v>-0.02604216682977238</v>
       </c>
       <c r="C33">
-        <v>-0.0264652787375345</v>
+        <v>0.04595306826249267</v>
       </c>
       <c r="D33">
-        <v>0.02233150519868348</v>
+        <v>0.01455280597412933</v>
       </c>
       <c r="E33">
-        <v>0.02322601115218437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02679997961603777</v>
+      </c>
+      <c r="F33">
+        <v>0.02333122973765124</v>
+      </c>
+      <c r="G33">
+        <v>0.05821994065582314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004235128738371403</v>
+        <v>-0.03904739641838004</v>
       </c>
       <c r="C34">
-        <v>-0.02161656678480757</v>
+        <v>0.05762118120017328</v>
       </c>
       <c r="D34">
-        <v>0.04468569714749458</v>
+        <v>-0.004599717417466262</v>
       </c>
       <c r="E34">
-        <v>-0.006979235653815846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004172462652316889</v>
+      </c>
+      <c r="F34">
+        <v>0.02585758900306463</v>
+      </c>
+      <c r="G34">
+        <v>0.04754985035923324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01296237675561288</v>
+        <v>-0.01208843893023642</v>
       </c>
       <c r="C36">
-        <v>-0.02340887186618443</v>
+        <v>0.007399317741274177</v>
       </c>
       <c r="D36">
-        <v>0.002399631931865333</v>
+        <v>0.01144489722510687</v>
       </c>
       <c r="E36">
-        <v>-0.00282126331125873</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0002835901537593523</v>
+      </c>
+      <c r="F36">
+        <v>-0.008133489341039964</v>
+      </c>
+      <c r="G36">
+        <v>0.03780315772556118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003798306063001829</v>
+        <v>-0.03044662529231535</v>
       </c>
       <c r="C38">
-        <v>-0.03829511879407126</v>
+        <v>0.02785936241161546</v>
       </c>
       <c r="D38">
-        <v>0.02809610622006069</v>
+        <v>-0.007438086117287913</v>
       </c>
       <c r="E38">
-        <v>-0.001860395110614612</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004557071460247515</v>
+      </c>
+      <c r="F38">
+        <v>-0.01034725293912711</v>
+      </c>
+      <c r="G38">
+        <v>0.04500450051315066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005395972556187226</v>
+        <v>-0.03097854338953543</v>
       </c>
       <c r="C39">
-        <v>0.01487951022177395</v>
+        <v>0.08164251960154283</v>
       </c>
       <c r="D39">
-        <v>0.09134320472989002</v>
+        <v>0.01229047560005242</v>
       </c>
       <c r="E39">
-        <v>0.003847336674400204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02195913436153365</v>
+      </c>
+      <c r="F39">
+        <v>0.03666021547758246</v>
+      </c>
+      <c r="G39">
+        <v>0.04184547795170925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01216772133762471</v>
+        <v>-0.01888856436401981</v>
       </c>
       <c r="C40">
-        <v>-0.02515804171702321</v>
+        <v>0.03173420779727472</v>
       </c>
       <c r="D40">
-        <v>0.02977146260348128</v>
+        <v>0.01337453343000684</v>
       </c>
       <c r="E40">
-        <v>0.002268188428262555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01971035904572147</v>
+      </c>
+      <c r="F40">
+        <v>0.01715123661955288</v>
+      </c>
+      <c r="G40">
+        <v>0.04070750869366387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006043709932838334</v>
+        <v>-0.01131648055025576</v>
       </c>
       <c r="C41">
-        <v>-0.02277461149774665</v>
+        <v>0.001801989464340643</v>
       </c>
       <c r="D41">
-        <v>-0.008245111303043378</v>
+        <v>0.004116994870316253</v>
       </c>
       <c r="E41">
-        <v>-0.002091892357621218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0008142546989666793</v>
+      </c>
+      <c r="F41">
+        <v>-0.001026779018846264</v>
+      </c>
+      <c r="G41">
+        <v>0.02695534169980424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09329726347314488</v>
+        <v>-0.01437580521776497</v>
       </c>
       <c r="C42">
-        <v>-2.865497550119694e-05</v>
+        <v>0.04182273688924431</v>
       </c>
       <c r="D42">
-        <v>0.2770157735731811</v>
+        <v>0.09453238998721042</v>
       </c>
       <c r="E42">
-        <v>0.2613550555268649</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03526826415774288</v>
+      </c>
+      <c r="F42">
+        <v>-0.04089492313840528</v>
+      </c>
+      <c r="G42">
+        <v>-0.1560197826096925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007364028504471845</v>
+        <v>-0.02904083680742546</v>
       </c>
       <c r="C43">
-        <v>-0.02579206701324348</v>
+        <v>0.01263848805189085</v>
       </c>
       <c r="D43">
-        <v>-0.01238566416911951</v>
+        <v>0.004917680992975898</v>
       </c>
       <c r="E43">
-        <v>0.004279021561292519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008916290249833441</v>
+      </c>
+      <c r="F43">
+        <v>-0.002293893691766786</v>
+      </c>
+      <c r="G43">
+        <v>0.03896817147606785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003681993496979811</v>
+        <v>-0.01586693319913259</v>
       </c>
       <c r="C44">
-        <v>-0.01060749856975963</v>
+        <v>0.04749635898270942</v>
       </c>
       <c r="D44">
-        <v>0.02640368079166572</v>
+        <v>0.006190168560603355</v>
       </c>
       <c r="E44">
-        <v>-0.003091641590328992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01681586172059326</v>
+      </c>
+      <c r="F44">
+        <v>0.002346242695674719</v>
+      </c>
+      <c r="G44">
+        <v>0.05780151799551844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01115129227953045</v>
+        <v>-0.005880942141017758</v>
       </c>
       <c r="C46">
-        <v>-0.01934424200158332</v>
+        <v>0.01666469267768505</v>
       </c>
       <c r="D46">
-        <v>0.01081615416367175</v>
+        <v>0.01142990566197697</v>
       </c>
       <c r="E46">
-        <v>-0.00187662259970128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006340226808700346</v>
+      </c>
+      <c r="F46">
+        <v>-0.01952496068839504</v>
+      </c>
+      <c r="G46">
+        <v>0.0430310455559127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.003337489102626265</v>
+        <v>-0.0759964058124023</v>
       </c>
       <c r="C47">
-        <v>-0.05887282398966903</v>
+        <v>0.06661020989966786</v>
       </c>
       <c r="D47">
-        <v>0.05695093323351223</v>
+        <v>-0.004856012413913719</v>
       </c>
       <c r="E47">
-        <v>0.0002603121657090207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009699475422350815</v>
+      </c>
+      <c r="F47">
+        <v>-0.05439106044123327</v>
+      </c>
+      <c r="G47">
+        <v>0.04155430960490312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003687251676303005</v>
+        <v>-0.02032010892865472</v>
       </c>
       <c r="C48">
-        <v>-0.02920451230116838</v>
+        <v>0.00932723525695818</v>
       </c>
       <c r="D48">
-        <v>0.009649367409618907</v>
+        <v>0.000822351020590022</v>
       </c>
       <c r="E48">
-        <v>-0.003485264477905678</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003980844710279915</v>
+      </c>
+      <c r="F48">
+        <v>-0.0169283756873621</v>
+      </c>
+      <c r="G48">
+        <v>0.04415180900856908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.005210762482685373</v>
+        <v>-0.07865730543890952</v>
       </c>
       <c r="C50">
-        <v>-0.05685660195128551</v>
+        <v>0.06774350416374295</v>
       </c>
       <c r="D50">
-        <v>0.06089278057286907</v>
+        <v>-0.003199356227663283</v>
       </c>
       <c r="E50">
-        <v>-0.02993351214687275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01354352766813851</v>
+      </c>
+      <c r="F50">
+        <v>-0.05749702076430162</v>
+      </c>
+      <c r="G50">
+        <v>0.06661626243353383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007120670651882649</v>
+        <v>-0.01260069062908991</v>
       </c>
       <c r="C51">
-        <v>-0.01877493913603947</v>
+        <v>0.03148162268867628</v>
       </c>
       <c r="D51">
-        <v>-0.002954944882974817</v>
+        <v>0.009186516427257357</v>
       </c>
       <c r="E51">
-        <v>-0.002664440569496713</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01050455651605221</v>
+      </c>
+      <c r="F51">
+        <v>0.02225309755691701</v>
+      </c>
+      <c r="G51">
+        <v>0.06355397112254213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.006314902399629812</v>
+        <v>-0.08363072959057583</v>
       </c>
       <c r="C53">
-        <v>-0.07184020780562525</v>
+        <v>0.08098514092940992</v>
       </c>
       <c r="D53">
-        <v>0.1157205491909575</v>
+        <v>-0.004236975108558561</v>
       </c>
       <c r="E53">
-        <v>-0.01101958922189475</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03285058741192258</v>
+      </c>
+      <c r="F53">
+        <v>-0.05850762485754155</v>
+      </c>
+      <c r="G53">
+        <v>0.04160200045306612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0005031685926799545</v>
+        <v>-0.03181849511151157</v>
       </c>
       <c r="C54">
-        <v>-0.0364763951008055</v>
+        <v>0.01265652973206358</v>
       </c>
       <c r="D54">
-        <v>-0.007962351327544092</v>
+        <v>-0.002932822656765385</v>
       </c>
       <c r="E54">
-        <v>-0.008896162967534458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.00115503340067056</v>
+      </c>
+      <c r="F54">
+        <v>-0.006163611205501802</v>
+      </c>
+      <c r="G54">
+        <v>0.04728559969035156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003465024795627305</v>
+        <v>-0.07148190239329549</v>
       </c>
       <c r="C55">
-        <v>-0.05426259286977515</v>
+        <v>0.07224223571275504</v>
       </c>
       <c r="D55">
-        <v>0.09958819524259128</v>
+        <v>-0.004752262261101562</v>
       </c>
       <c r="E55">
-        <v>0.001885904013263913</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0250885664407647</v>
+      </c>
+      <c r="F55">
+        <v>-0.05627957263389824</v>
+      </c>
+      <c r="G55">
+        <v>0.02350692334334481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.004987985586848591</v>
+        <v>-0.1424064656802773</v>
       </c>
       <c r="C56">
-        <v>-0.1002220422241586</v>
+        <v>0.1072601703691184</v>
       </c>
       <c r="D56">
-        <v>0.1480022877030488</v>
+        <v>-0.01251540383644946</v>
       </c>
       <c r="E56">
-        <v>-0.002716841460164467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03733039546561351</v>
+      </c>
+      <c r="F56">
+        <v>-0.08080637371995134</v>
+      </c>
+      <c r="G56">
+        <v>0.01191857476452009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02411303588454967</v>
+        <v>-0.009340670281129984</v>
       </c>
       <c r="C57">
-        <v>-0.02282611518843296</v>
+        <v>0.009609992320535042</v>
       </c>
       <c r="D57">
-        <v>0.04070335297757234</v>
+        <v>0.02349925129008106</v>
       </c>
       <c r="E57">
-        <v>0.003186288289537274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02720591764093262</v>
+      </c>
+      <c r="F57">
+        <v>0.01258719487056262</v>
+      </c>
+      <c r="G57">
+        <v>0.02294649696795911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01343569600614092</v>
+        <v>-0.08243188634599523</v>
       </c>
       <c r="C58">
-        <v>-0.1024882065386026</v>
+        <v>0.03288172734875004</v>
       </c>
       <c r="D58">
-        <v>0.09150660461397177</v>
+        <v>0.0160633182401474</v>
       </c>
       <c r="E58">
-        <v>0.1929493855236704</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9452179537816903</v>
+      </c>
+      <c r="F58">
+        <v>-0.2216842189814792</v>
+      </c>
+      <c r="G58">
+        <v>-0.02604641566662303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03475580111850023</v>
+        <v>-0.1613886730613164</v>
       </c>
       <c r="C59">
-        <v>-0.2450270868030597</v>
+        <v>-0.2106702688070728</v>
       </c>
       <c r="D59">
-        <v>-0.1771229623615296</v>
+        <v>-0.01591874639080817</v>
       </c>
       <c r="E59">
-        <v>0.009564207437948419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.003183925881818337</v>
+      </c>
+      <c r="F59">
+        <v>-0.0004671330667285788</v>
+      </c>
+      <c r="G59">
+        <v>0.01962308551077491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0380408467708828</v>
+        <v>-0.2840066499788829</v>
       </c>
       <c r="C60">
-        <v>-0.1645238995668673</v>
+        <v>0.099742643472612</v>
       </c>
       <c r="D60">
-        <v>0.06901997662256121</v>
+        <v>0.01154517671208784</v>
       </c>
       <c r="E60">
-        <v>0.03775089400439027</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.00596693936018961</v>
+      </c>
+      <c r="F60">
+        <v>0.3487293304622505</v>
+      </c>
+      <c r="G60">
+        <v>-0.09874672704118573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0036231515544916</v>
+        <v>-0.0339745643238819</v>
       </c>
       <c r="C61">
-        <v>-0.01228571100080184</v>
+        <v>0.06455685592829824</v>
       </c>
       <c r="D61">
-        <v>0.06219297823740347</v>
+        <v>0.005506423482321939</v>
       </c>
       <c r="E61">
-        <v>0.00130689035780609</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01082734174672774</v>
+      </c>
+      <c r="F61">
+        <v>0.01934631701093147</v>
+      </c>
+      <c r="G61">
+        <v>0.03828795178648538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007552351643396308</v>
+        <v>-0.01320092479125056</v>
       </c>
       <c r="C63">
-        <v>-0.01002730130831327</v>
+        <v>0.02776289896017435</v>
       </c>
       <c r="D63">
-        <v>0.007483384396508028</v>
+        <v>0.007940291556945386</v>
       </c>
       <c r="E63">
-        <v>-0.007614994453574632</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004223239727702336</v>
+      </c>
+      <c r="F63">
+        <v>-0.01737389583750871</v>
+      </c>
+      <c r="G63">
+        <v>0.04745928685699013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008292290547382406</v>
+        <v>-0.05157292169000335</v>
       </c>
       <c r="C64">
-        <v>-0.03464495914694835</v>
+        <v>0.044639415933506</v>
       </c>
       <c r="D64">
-        <v>0.06514608774007312</v>
+        <v>0.005534389868848066</v>
       </c>
       <c r="E64">
-        <v>0.01033363385256875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006310276889643546</v>
+      </c>
+      <c r="F64">
+        <v>0.004792146743379803</v>
+      </c>
+      <c r="G64">
+        <v>0.03311933190184872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01776614637426184</v>
+        <v>-0.0841016642447515</v>
       </c>
       <c r="C65">
-        <v>-0.02481484907877043</v>
+        <v>0.05885931383476889</v>
       </c>
       <c r="D65">
-        <v>0.09031145065130361</v>
+        <v>0.01480973110361456</v>
       </c>
       <c r="E65">
-        <v>-0.00715220016225355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01733762365089681</v>
+      </c>
+      <c r="F65">
+        <v>0.03448497534248616</v>
+      </c>
+      <c r="G65">
+        <v>0.01531144932158156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005369632333011574</v>
+        <v>-0.04949664737901833</v>
       </c>
       <c r="C66">
-        <v>0.005134173902168614</v>
+        <v>0.112394546676184</v>
       </c>
       <c r="D66">
-        <v>0.1174500405734915</v>
+        <v>0.01211336149816683</v>
       </c>
       <c r="E66">
-        <v>0.01487661273013047</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02736204842829369</v>
+      </c>
+      <c r="F66">
+        <v>0.04370552529337225</v>
+      </c>
+      <c r="G66">
+        <v>0.03958179015048446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.002399326440209469</v>
+        <v>-0.05250908754162845</v>
       </c>
       <c r="C67">
-        <v>-0.05951328393176127</v>
+        <v>0.03208370635104228</v>
       </c>
       <c r="D67">
-        <v>0.03277269333916913</v>
+        <v>-0.005474425929260736</v>
       </c>
       <c r="E67">
-        <v>-0.0004104803721545295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001848851881205793</v>
+      </c>
+      <c r="F67">
+        <v>-0.01293596484434113</v>
+      </c>
+      <c r="G67">
+        <v>0.04192239667538209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05184712192878364</v>
+        <v>-0.1436951637131631</v>
       </c>
       <c r="C68">
-        <v>-0.2170380214929621</v>
+        <v>-0.2697974707949519</v>
       </c>
       <c r="D68">
-        <v>-0.1642730159370076</v>
+        <v>0.002340331167443248</v>
       </c>
       <c r="E68">
-        <v>0.01284834580503911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003628936658803325</v>
+      </c>
+      <c r="F68">
+        <v>-0.03950797628887838</v>
+      </c>
+      <c r="G68">
+        <v>0.02031648298774552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001584631189704544</v>
+        <v>-0.07619906231600629</v>
       </c>
       <c r="C69">
-        <v>-0.04776710294320413</v>
+        <v>0.06889946894711722</v>
       </c>
       <c r="D69">
-        <v>0.06222526945191501</v>
+        <v>-0.008596872639938727</v>
       </c>
       <c r="E69">
-        <v>-0.0005047547183125857</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02642258337096575</v>
+      </c>
+      <c r="F69">
+        <v>-0.03940328800290809</v>
+      </c>
+      <c r="G69">
+        <v>0.04535453216463147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03795281574628822</v>
+        <v>-0.1373461196491559</v>
       </c>
       <c r="C71">
-        <v>-0.1923131240927696</v>
+        <v>-0.2322445322833735</v>
       </c>
       <c r="D71">
-        <v>-0.1490937346387989</v>
+        <v>-0.006460503770570289</v>
       </c>
       <c r="E71">
-        <v>-0.002192578685281199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02234135400667793</v>
+      </c>
+      <c r="F71">
+        <v>-0.009876250809210205</v>
+      </c>
+      <c r="G71">
+        <v>0.03722375331310258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.000137967532996359</v>
+        <v>-0.0833034676966655</v>
       </c>
       <c r="C72">
-        <v>-0.05685373520349393</v>
+        <v>0.07247509186963048</v>
       </c>
       <c r="D72">
-        <v>0.1301701392863444</v>
+        <v>-0.008166598666074222</v>
       </c>
       <c r="E72">
-        <v>0.01737962932128284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00538430241826495</v>
+      </c>
+      <c r="F72">
+        <v>0.04025717048311483</v>
+      </c>
+      <c r="G72">
+        <v>0.01574847515880383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05221149910352623</v>
+        <v>-0.3959727560016843</v>
       </c>
       <c r="C73">
-        <v>-0.1954907926096132</v>
+        <v>0.1150783764403722</v>
       </c>
       <c r="D73">
-        <v>0.1624384992297769</v>
+        <v>0.01792355773882756</v>
       </c>
       <c r="E73">
-        <v>0.08814718047742516</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05496048965367348</v>
+      </c>
+      <c r="F73">
+        <v>0.5594636368318306</v>
+      </c>
+      <c r="G73">
+        <v>-0.1737793379275847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002465554218452701</v>
+        <v>-0.1111295445416532</v>
       </c>
       <c r="C74">
-        <v>-0.09064559215951852</v>
+        <v>0.1170131816191627</v>
       </c>
       <c r="D74">
-        <v>0.1539416639581367</v>
+        <v>-0.009557232703418137</v>
       </c>
       <c r="E74">
-        <v>0.004163372187535299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01528580049135518</v>
+      </c>
+      <c r="F74">
+        <v>-0.07325735709894089</v>
+      </c>
+      <c r="G74">
+        <v>0.04977812993065177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.009007056053621463</v>
+        <v>-0.2493374325011912</v>
       </c>
       <c r="C75">
-        <v>-0.2014609148282479</v>
+        <v>0.1572241878602609</v>
       </c>
       <c r="D75">
-        <v>0.2791565970942141</v>
+        <v>-0.02930000331575107</v>
       </c>
       <c r="E75">
-        <v>0.01446261539189623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05413085156212037</v>
+      </c>
+      <c r="F75">
+        <v>-0.1871513255662883</v>
+      </c>
+      <c r="G75">
+        <v>-0.03547243366303688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001552314878778566</v>
+        <v>-0.1265552052967081</v>
       </c>
       <c r="C76">
-        <v>-0.1320907323107645</v>
+        <v>0.117792181594206</v>
       </c>
       <c r="D76">
-        <v>0.2254019056468474</v>
+        <v>-0.02038656231537625</v>
       </c>
       <c r="E76">
-        <v>-0.01476636966645997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04670737366699172</v>
+      </c>
+      <c r="F76">
+        <v>-0.1178253288472843</v>
+      </c>
+      <c r="G76">
+        <v>0.02722290560713857</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01220876771607131</v>
+        <v>-0.06453720640730504</v>
       </c>
       <c r="C77">
-        <v>-0.02006226810314298</v>
+        <v>0.06089121187494285</v>
       </c>
       <c r="D77">
-        <v>0.05169754148752991</v>
+        <v>0.01229130205083989</v>
       </c>
       <c r="E77">
-        <v>0.00473825374373457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0499790824907707</v>
+      </c>
+      <c r="F77">
+        <v>0.01507549106790334</v>
+      </c>
+      <c r="G77">
+        <v>0.05056295003673724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004671154566552323</v>
+        <v>-0.04131387625778816</v>
       </c>
       <c r="C78">
-        <v>-0.01861071678884079</v>
+        <v>0.0501073508872817</v>
       </c>
       <c r="D78">
-        <v>0.06098056457450278</v>
+        <v>0.005438150963037668</v>
       </c>
       <c r="E78">
-        <v>-0.003452908134393819</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01989814516046643</v>
+      </c>
+      <c r="F78">
+        <v>0.04196610686711903</v>
+      </c>
+      <c r="G78">
+        <v>0.0473166383168114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0169915747317487</v>
+        <v>-0.0549765324151983</v>
       </c>
       <c r="C80">
-        <v>-0.1113157863100431</v>
+        <v>0.06164176704620655</v>
       </c>
       <c r="D80">
-        <v>0.1309389969993889</v>
+        <v>0.01241284498213217</v>
       </c>
       <c r="E80">
-        <v>-0.9215845947386997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02910783100411383</v>
+      </c>
+      <c r="F80">
+        <v>0.03726932183659844</v>
+      </c>
+      <c r="G80">
+        <v>0.8540000540596603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.006485579006039482</v>
+        <v>-0.1443431276582795</v>
       </c>
       <c r="C81">
-        <v>-0.1248321717341093</v>
+        <v>0.09351156791522905</v>
       </c>
       <c r="D81">
-        <v>0.1633422682073423</v>
+        <v>-0.0149363333926557</v>
       </c>
       <c r="E81">
-        <v>-0.001560174571633454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03108969340995984</v>
+      </c>
+      <c r="F81">
+        <v>-0.1248225922219725</v>
+      </c>
+      <c r="G81">
+        <v>0.02331904739790427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1022933345946546</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0542651656569977</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005118890289455495</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07798690360594228</v>
+      </c>
+      <c r="F82">
+        <v>-0.01815991511747996</v>
+      </c>
+      <c r="G82">
+        <v>0.02245621124004021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007141407458181635</v>
+        <v>-0.02774371635743833</v>
       </c>
       <c r="C83">
-        <v>-0.02447569211701635</v>
+        <v>0.02159178583170957</v>
       </c>
       <c r="D83">
-        <v>0.02285645556210183</v>
+        <v>0.005397765295665172</v>
       </c>
       <c r="E83">
-        <v>0.002739734508402029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02476015257904755</v>
+      </c>
+      <c r="F83">
+        <v>0.02407776946831499</v>
+      </c>
+      <c r="G83">
+        <v>0.0294290912556267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01536764506142371</v>
+        <v>-0.2218086641653678</v>
       </c>
       <c r="C85">
-        <v>-0.156455289827716</v>
+        <v>0.1495625233535094</v>
       </c>
       <c r="D85">
-        <v>0.2603931931544569</v>
+        <v>-0.01751828519443957</v>
       </c>
       <c r="E85">
-        <v>0.01983613562735609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09464710354226974</v>
+      </c>
+      <c r="F85">
+        <v>-0.1537691177573001</v>
+      </c>
+      <c r="G85">
+        <v>-0.06440712771534585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007536550099884048</v>
+        <v>-0.01096525927700873</v>
       </c>
       <c r="C86">
-        <v>-0.02762671808100694</v>
+        <v>0.01718480326869247</v>
       </c>
       <c r="D86">
-        <v>0.008765540339625155</v>
+        <v>0.01008726967117363</v>
       </c>
       <c r="E86">
-        <v>0.02827014780183465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03500687858681996</v>
+      </c>
+      <c r="F86">
+        <v>0.03130155347180281</v>
+      </c>
+      <c r="G86">
+        <v>0.07793182936100662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00771820228870113</v>
+        <v>-0.01987998727642892</v>
       </c>
       <c r="C87">
-        <v>-0.01647551103622317</v>
+        <v>0.02333496685365622</v>
       </c>
       <c r="D87">
-        <v>0.04098102545524727</v>
+        <v>0.01063128718201145</v>
       </c>
       <c r="E87">
-        <v>0.003756856867374031</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08231351000073057</v>
+      </c>
+      <c r="F87">
+        <v>0.02601970023710394</v>
+      </c>
+      <c r="G87">
+        <v>0.06064795241569684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02732116092325386</v>
+        <v>-0.09010303805244112</v>
       </c>
       <c r="C88">
-        <v>-0.03574330415595535</v>
+        <v>0.06535883005059152</v>
       </c>
       <c r="D88">
-        <v>0.03721155468768281</v>
+        <v>0.02290885914881302</v>
       </c>
       <c r="E88">
-        <v>0.0001038243879020242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01376116411766668</v>
+      </c>
+      <c r="F88">
+        <v>-0.01584190360038146</v>
+      </c>
+      <c r="G88">
+        <v>0.03877158860276305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0727485375127257</v>
+        <v>-0.2234308357377235</v>
       </c>
       <c r="C89">
-        <v>-0.3590612523510638</v>
+        <v>-0.3672773628995335</v>
       </c>
       <c r="D89">
-        <v>-0.2577623310769789</v>
+        <v>-0.005430028608615324</v>
       </c>
       <c r="E89">
-        <v>0.0247139753955667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02279473141802708</v>
+      </c>
+      <c r="F89">
+        <v>-0.03074534046987389</v>
+      </c>
+      <c r="G89">
+        <v>0.03222741474583824</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05462684078428076</v>
+        <v>-0.2010208308873105</v>
       </c>
       <c r="C90">
-        <v>-0.270032580630875</v>
+        <v>-0.3271052305385964</v>
       </c>
       <c r="D90">
-        <v>-0.2254934377031225</v>
+        <v>-0.009546904458493788</v>
       </c>
       <c r="E90">
-        <v>0.02343741938920857</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02235237275697393</v>
+      </c>
+      <c r="F90">
+        <v>-0.04526274127359019</v>
+      </c>
+      <c r="G90">
+        <v>0.005914247597562618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.004937406884525779</v>
+        <v>-0.1975662506558221</v>
       </c>
       <c r="C91">
-        <v>-0.1713191172287744</v>
+        <v>0.1402536291802689</v>
       </c>
       <c r="D91">
-        <v>0.2357270694558492</v>
+        <v>-0.02315605734204394</v>
       </c>
       <c r="E91">
-        <v>0.001975230160979569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07039659319027508</v>
+      </c>
+      <c r="F91">
+        <v>-0.1588076228048947</v>
+      </c>
+      <c r="G91">
+        <v>0.008849615995513723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02256079969426253</v>
+        <v>-0.2059748483347147</v>
       </c>
       <c r="C92">
-        <v>-0.3103444445906374</v>
+        <v>-0.2632484247413475</v>
       </c>
       <c r="D92">
-        <v>-0.1176640517057327</v>
+        <v>-0.04586053383747772</v>
       </c>
       <c r="E92">
-        <v>0.007046580701474706</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003164405422222717</v>
+      </c>
+      <c r="F92">
+        <v>-0.07701872561994051</v>
+      </c>
+      <c r="G92">
+        <v>0.07855799897450498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05320629732037549</v>
+        <v>-0.229239566120403</v>
       </c>
       <c r="C93">
-        <v>-0.3032322502533254</v>
+        <v>-0.3216573529331159</v>
       </c>
       <c r="D93">
-        <v>-0.2234297690398226</v>
+        <v>-0.01634664252944567</v>
       </c>
       <c r="E93">
-        <v>0.04083698978684688</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008708032581732229</v>
+      </c>
+      <c r="F93">
+        <v>-0.03668752831487239</v>
+      </c>
+      <c r="G93">
+        <v>0.006414316685059417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.0279440235026541</v>
+        <v>-0.3005171782536439</v>
       </c>
       <c r="C94">
-        <v>-0.2025494488400056</v>
+        <v>0.190688184262889</v>
       </c>
       <c r="D94">
-        <v>0.2436693225038875</v>
+        <v>-0.0135468590579958</v>
       </c>
       <c r="E94">
-        <v>0.04758060230159793</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1492411815532309</v>
+      </c>
+      <c r="F94">
+        <v>-0.4851019671371252</v>
+      </c>
+      <c r="G94">
+        <v>-0.1986747456330517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004628057870345224</v>
+        <v>-0.08998027223603175</v>
       </c>
       <c r="C95">
-        <v>-0.04969506952790001</v>
+        <v>0.08377190750115356</v>
       </c>
       <c r="D95">
-        <v>0.09413659687044311</v>
+        <v>-0.007787011936901206</v>
       </c>
       <c r="E95">
-        <v>0.1060257770207033</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06883880184523387</v>
+      </c>
+      <c r="F95">
+        <v>0.1795522452891903</v>
+      </c>
+      <c r="G95">
+        <v>-0.0651073719398209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01273042386879514</v>
+        <v>-0.1971099763359003</v>
       </c>
       <c r="C98">
-        <v>-0.1703613660110796</v>
+        <v>0.04115585074380281</v>
       </c>
       <c r="D98">
-        <v>0.1107730035099958</v>
+        <v>-0.01381743183502247</v>
       </c>
       <c r="E98">
-        <v>0.05212637988196697</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06471759230923377</v>
+      </c>
+      <c r="F98">
+        <v>0.2496824982142698</v>
+      </c>
+      <c r="G98">
+        <v>-0.02847244781422162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00778404068474509</v>
+        <v>-0.01043755342367572</v>
       </c>
       <c r="C101">
-        <v>-0.01945394650754812</v>
+        <v>0.01897935054483764</v>
       </c>
       <c r="D101">
-        <v>0.009822425880877493</v>
+        <v>0.007231333313612918</v>
       </c>
       <c r="E101">
-        <v>-0.008660250232696816</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008010638603925068</v>
+      </c>
+      <c r="F101">
+        <v>-0.01429374567387164</v>
+      </c>
+      <c r="G101">
+        <v>0.04547468469280455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01676745588412039</v>
+        <v>-0.119449099337972</v>
       </c>
       <c r="C102">
-        <v>-0.08758029264342826</v>
+        <v>0.08613087277377403</v>
       </c>
       <c r="D102">
-        <v>0.1252735331909471</v>
+        <v>0.001793452213059458</v>
       </c>
       <c r="E102">
-        <v>0.008895421929645318</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02914437333309189</v>
+      </c>
+      <c r="F102">
+        <v>-0.03619055696150055</v>
+      </c>
+      <c r="G102">
+        <v>-0.0009923063746649669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001546335540525998</v>
+        <v>-0.003452875949158035</v>
       </c>
       <c r="C103">
-        <v>-0.01174684499204781</v>
+        <v>0.004936449169956946</v>
       </c>
       <c r="D103">
-        <v>0.02574514667209087</v>
+        <v>0.0001614243495068149</v>
       </c>
       <c r="E103">
-        <v>-0.01572814934671806</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002093235210355874</v>
+      </c>
+      <c r="F103">
+        <v>-0.009752168891402405</v>
+      </c>
+      <c r="G103">
+        <v>0.01565144867094879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9791101409248772</v>
+        <v>-0.02794462695713413</v>
       </c>
       <c r="C104">
-        <v>0.1518926058396799</v>
+        <v>-0.03866394783520834</v>
       </c>
       <c r="D104">
-        <v>-0.002453743308244032</v>
+        <v>0.9875502037918777</v>
       </c>
       <c r="E104">
-        <v>-0.02583324428649954</v>
+        <v>-0.03869976464896904</v>
+      </c>
+      <c r="F104">
+        <v>-0.04040272065302395</v>
+      </c>
+      <c r="G104">
+        <v>-0.01210188788891037</v>
       </c>
     </row>
   </sheetData>
